--- a/preprocessing/preprocessing_all_features_not_cleaned.xlsx
+++ b/preprocessing/preprocessing_all_features_not_cleaned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>accuracy</t>
   </si>
@@ -106,76 +106,550 @@
     <t>24</t>
   </si>
   <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbf7f50a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbf7f5040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7ff2671fe340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbf7f5130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7ff202509940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc78910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc78af0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefc84e6490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc64a60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc64790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc649d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc64100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc645e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc64ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc64c10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc647f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc64820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc64700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc647c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc64550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc64400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc64430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc646a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fefbfc648e0&gt;</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe52026bf10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f3288e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f3282b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f3281c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f3286d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328b50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f3280a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328c40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328ca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328d00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328dc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328f10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328be0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328eb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328a30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328a90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f3284f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328f70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328e50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f3287c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328a00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328b80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f3284c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f3287f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f3283d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328fa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d8b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d9a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8da00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8da60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8db20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8db80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dbe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dc40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dd60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8ddc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dd30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8df10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d0a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8df70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51f328af0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8de20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d6d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8da90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d1c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d3d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dbb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dd90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d0d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8df40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8ddf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dc70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d2e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dcd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8da30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dfd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d3a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d430&gt;</t>
   </si>
   <si>
     <t>['nb_words_question1']</t>
@@ -248,6 +722,243 @@
   </si>
   <si>
     <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2', 'proba_computers_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2', 'proba_computers_question2', 'proba_forsale_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2', 'proba_computers_question2', 'proba_forsale_question2', 'proba_vehicles_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2', 'proba_computers_question2', 'proba_forsale_question2', 'proba_vehicles_question2', 'proba_sport_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2', 'proba_computers_question2', 'proba_forsale_question2', 'proba_vehicles_question2', 'proba_sport_question2', 'proba_science_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2', 'proba_computers_question2', 'proba_forsale_question2', 'proba_vehicles_question2', 'proba_sport_question2', 'proba_science_question2', 'proba_politics_question2']</t>
+  </si>
+  <si>
+    <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2', 'proba_computers_question2', 'proba_forsale_question2', 'proba_vehicles_question2', 'proba_sport_question2', 'proba_science_question2', 'proba_politics_question2', 'spacy_similarity']</t>
   </si>
 </sst>
 </file>
@@ -605,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,13 +1356,13 @@
         <v>0.4546</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F2">
-        <v>37.9279</v>
+        <v>14.5209</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -668,13 +1379,13 @@
         <v>0.4435</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="F3">
-        <v>45.5676</v>
+        <v>12.4775</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -691,13 +1402,13 @@
         <v>0.3859</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="F4">
-        <v>42.9943</v>
+        <v>18.2454</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -714,13 +1425,13 @@
         <v>0.3805</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F5">
-        <v>52.4777</v>
+        <v>13.5659</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -737,13 +1448,13 @@
         <v>0.3789</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="F6">
-        <v>48.7719</v>
+        <v>13.5773</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -760,13 +1471,13 @@
         <v>0.3789</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F7">
-        <v>51.78</v>
+        <v>13.4729</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -783,13 +1494,13 @@
         <v>0.3787</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="F8">
-        <v>50.9077</v>
+        <v>14.0135</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -806,13 +1517,13 @@
         <v>0.3784</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="F9">
-        <v>56.5386</v>
+        <v>16.5446</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -829,13 +1540,13 @@
         <v>0.378</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="F10">
-        <v>60.5305</v>
+        <v>17.638</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -852,13 +1563,13 @@
         <v>0.3777</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="F11">
-        <v>55.2703</v>
+        <v>18.4453</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -875,13 +1586,13 @@
         <v>0.3524</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="F12">
-        <v>56.7606</v>
+        <v>18.15</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -898,13 +1609,13 @@
         <v>0.3457</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="F13">
-        <v>56.9949</v>
+        <v>20.6329</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -921,13 +1632,13 @@
         <v>0.3418</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="F14">
-        <v>65.1574</v>
+        <v>18.9652</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -944,13 +1655,13 @@
         <v>0.3418</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="F15">
-        <v>59.1843</v>
+        <v>21.8539</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -967,13 +1678,13 @@
         <v>0.3418</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="F16">
-        <v>60.9917</v>
+        <v>21.5582</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -990,13 +1701,13 @@
         <v>0.3398</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="F17">
-        <v>63.0849</v>
+        <v>22.807</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1013,13 +1724,13 @@
         <v>0.3398</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F18">
-        <v>63.7945</v>
+        <v>22.4219</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1036,13 +1747,13 @@
         <v>0.3397</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F19">
-        <v>70.99550000000001</v>
+        <v>22.5478</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1059,13 +1770,13 @@
         <v>0.3396</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="F20">
-        <v>65.4072</v>
+        <v>24.6912</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1082,13 +1793,13 @@
         <v>0.3393</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="F21">
-        <v>67.04730000000001</v>
+        <v>26.2567</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1105,13 +1816,13 @@
         <v>0.3392</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="F22">
-        <v>66.2045</v>
+        <v>26.0565</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1128,13 +1839,13 @@
         <v>0.3392</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>69.30549999999999</v>
+        <v>24.7804</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1151,13 +1862,13 @@
         <v>0.3392</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="F24">
-        <v>75.90349999999999</v>
+        <v>26.2344</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1174,13 +1885,1830 @@
         <v>0.339</v>
       </c>
       <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25">
+        <v>27.6266</v>
+      </c>
+      <c r="G25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0.8290999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.7675999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.3389</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26">
+        <v>25.8705</v>
+      </c>
+      <c r="G26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0.8292</v>
+      </c>
+      <c r="C27">
+        <v>0.7675</v>
+      </c>
+      <c r="D27">
+        <v>0.3389</v>
+      </c>
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27">
+        <v>27.2657</v>
+      </c>
+      <c r="G27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>0.8289</v>
+      </c>
+      <c r="C28">
+        <v>0.7672</v>
+      </c>
+      <c r="D28">
+        <v>0.3385</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28">
+        <v>26.8363</v>
+      </c>
+      <c r="G28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>0.8293</v>
+      </c>
+      <c r="C29">
+        <v>0.7683</v>
+      </c>
+      <c r="D29">
+        <v>0.3377</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29">
+        <v>27.0472</v>
+      </c>
+      <c r="G29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>0.829</v>
+      </c>
+      <c r="C30">
+        <v>0.7674</v>
+      </c>
+      <c r="D30">
+        <v>0.3377</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30">
+        <v>29.9347</v>
+      </c>
+      <c r="G30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>0.829</v>
+      </c>
+      <c r="C31">
+        <v>0.7674</v>
+      </c>
+      <c r="D31">
+        <v>0.3377</v>
+      </c>
+      <c r="E31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31">
+        <v>28.2222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>0.829</v>
+      </c>
+      <c r="C32">
+        <v>0.7674</v>
+      </c>
+      <c r="D32">
+        <v>0.3377</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32">
+        <v>37.386</v>
+      </c>
+      <c r="G32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>0.8294</v>
+      </c>
+      <c r="C33">
+        <v>0.7709</v>
+      </c>
+      <c r="D33">
+        <v>0.3373</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33">
+        <v>31.2495</v>
+      </c>
+      <c r="G33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>0.8294</v>
+      </c>
+      <c r="C34">
+        <v>0.7709</v>
+      </c>
+      <c r="D34">
+        <v>0.3369</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34">
+        <v>31.854</v>
+      </c>
+      <c r="G34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0.8295</v>
+      </c>
+      <c r="C35">
+        <v>0.771</v>
+      </c>
+      <c r="D35">
+        <v>0.3368</v>
+      </c>
+      <c r="E35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35">
+        <v>31.4124</v>
+      </c>
+      <c r="G35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>0.8294</v>
+      </c>
+      <c r="C36">
+        <v>0.7723</v>
+      </c>
+      <c r="D36">
+        <v>0.3361</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36">
+        <v>32.5523</v>
+      </c>
+      <c r="G36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>0.8298</v>
+      </c>
+      <c r="C37">
+        <v>0.7737000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.3338</v>
+      </c>
+      <c r="E37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37">
+        <v>32.7812</v>
+      </c>
+      <c r="G37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>0.8329</v>
+      </c>
+      <c r="C38">
+        <v>0.7839</v>
+      </c>
+      <c r="D38">
+        <v>0.3327</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38">
+        <v>33.4585</v>
+      </c>
+      <c r="G38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>0.8331</v>
+      </c>
+      <c r="C39">
+        <v>0.7839</v>
+      </c>
+      <c r="D39">
+        <v>0.3325</v>
+      </c>
+      <c r="E39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39">
+        <v>33.7311</v>
+      </c>
+      <c r="G39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>0.833</v>
+      </c>
+      <c r="C40">
+        <v>0.7839</v>
+      </c>
+      <c r="D40">
+        <v>0.3327</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40">
+        <v>36.5349</v>
+      </c>
+      <c r="G40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>0.8338</v>
+      </c>
+      <c r="C41">
+        <v>0.7863</v>
+      </c>
+      <c r="D41">
+        <v>0.3323</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41">
+        <v>37.0746</v>
+      </c>
+      <c r="G41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>0.8338</v>
+      </c>
+      <c r="C42">
+        <v>0.7863</v>
+      </c>
+      <c r="D42">
+        <v>0.3323</v>
+      </c>
+      <c r="E42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42">
+        <v>39.7704</v>
+      </c>
+      <c r="G42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>0.834</v>
+      </c>
+      <c r="C43">
+        <v>0.7865</v>
+      </c>
+      <c r="D43">
+        <v>0.3321</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43">
+        <v>35.4486</v>
+      </c>
+      <c r="G43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>0.834</v>
+      </c>
+      <c r="C44">
+        <v>0.7865</v>
+      </c>
+      <c r="D44">
+        <v>0.3321</v>
+      </c>
+      <c r="E44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44">
+        <v>37.4756</v>
+      </c>
+      <c r="G44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>0.834</v>
+      </c>
+      <c r="C45">
+        <v>0.7863</v>
+      </c>
+      <c r="D45">
+        <v>0.3318</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45">
+        <v>36.7637</v>
+      </c>
+      <c r="G45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>0.834</v>
+      </c>
+      <c r="C46">
+        <v>0.7863</v>
+      </c>
+      <c r="D46">
+        <v>0.3317</v>
+      </c>
+      <c r="E46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46">
+        <v>38.1103</v>
+      </c>
+      <c r="G46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>0.8339</v>
+      </c>
+      <c r="C47">
+        <v>0.7862</v>
+      </c>
+      <c r="D47">
+        <v>0.3317</v>
+      </c>
+      <c r="E47" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47">
+        <v>38.8298</v>
+      </c>
+      <c r="G47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>0.8339</v>
+      </c>
+      <c r="C48">
+        <v>0.7862</v>
+      </c>
+      <c r="D48">
+        <v>0.3317</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48">
+        <v>39.5511</v>
+      </c>
+      <c r="G48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F25">
-        <v>68.6741</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="B49">
+        <v>0.8341</v>
+      </c>
+      <c r="C49">
+        <v>0.7864</v>
+      </c>
+      <c r="D49">
+        <v>0.3315</v>
+      </c>
+      <c r="E49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49">
+        <v>39.1273</v>
+      </c>
+      <c r="G49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>0.834</v>
+      </c>
+      <c r="C50">
+        <v>0.7861</v>
+      </c>
+      <c r="D50">
+        <v>0.3315</v>
+      </c>
+      <c r="E50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50">
+        <v>45.5856</v>
+      </c>
+      <c r="G50" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>0.834</v>
+      </c>
+      <c r="C51">
+        <v>0.7861</v>
+      </c>
+      <c r="D51">
+        <v>0.3315</v>
+      </c>
+      <c r="E51" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51">
+        <v>40.1901</v>
+      </c>
+      <c r="G51" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>0.834</v>
+      </c>
+      <c r="C52">
+        <v>0.7861</v>
+      </c>
+      <c r="D52">
+        <v>0.3315</v>
+      </c>
+      <c r="E52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52">
+        <v>40.2182</v>
+      </c>
+      <c r="G52" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>0.834</v>
+      </c>
+      <c r="C53">
+        <v>0.7861</v>
+      </c>
+      <c r="D53">
+        <v>0.3315</v>
+      </c>
+      <c r="E53" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53">
+        <v>40.8894</v>
+      </c>
+      <c r="G53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>0.8339</v>
+      </c>
+      <c r="C54">
+        <v>0.7862</v>
+      </c>
+      <c r="D54">
+        <v>0.3315</v>
+      </c>
+      <c r="E54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54">
+        <v>42.6574</v>
+      </c>
+      <c r="G54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>0.834</v>
+      </c>
+      <c r="C55">
+        <v>0.7863</v>
+      </c>
+      <c r="D55">
+        <v>0.3316</v>
+      </c>
+      <c r="E55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55">
+        <v>42.4763</v>
+      </c>
+      <c r="G55" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>0.834</v>
+      </c>
+      <c r="C56">
+        <v>0.7863</v>
+      </c>
+      <c r="D56">
+        <v>0.3316</v>
+      </c>
+      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56">
+        <v>42.2962</v>
+      </c>
+      <c r="G56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>0.8339</v>
+      </c>
+      <c r="C57">
+        <v>0.7861</v>
+      </c>
+      <c r="D57">
+        <v>0.3315</v>
+      </c>
+      <c r="E57" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57">
+        <v>47.141</v>
+      </c>
+      <c r="G57" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>0.8339</v>
+      </c>
+      <c r="C58">
+        <v>0.7863</v>
+      </c>
+      <c r="D58">
+        <v>0.3315</v>
+      </c>
+      <c r="E58" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58">
+        <v>46.2808</v>
+      </c>
+      <c r="G58" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>0.8339</v>
+      </c>
+      <c r="C59">
+        <v>0.7862</v>
+      </c>
+      <c r="D59">
+        <v>0.3315</v>
+      </c>
+      <c r="E59" t="s">
+        <v>166</v>
+      </c>
+      <c r="F59">
+        <v>42.8914</v>
+      </c>
+      <c r="G59" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>0.8339</v>
+      </c>
+      <c r="C60">
+        <v>0.7862</v>
+      </c>
+      <c r="D60">
+        <v>0.3315</v>
+      </c>
+      <c r="E60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60">
+        <v>45.4499</v>
+      </c>
+      <c r="G60" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>0.834</v>
+      </c>
+      <c r="C61">
+        <v>0.7863</v>
+      </c>
+      <c r="D61">
+        <v>0.3316</v>
+      </c>
+      <c r="E61" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61">
+        <v>46.401</v>
+      </c>
+      <c r="G61" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>0.834</v>
+      </c>
+      <c r="C62">
+        <v>0.7863</v>
+      </c>
+      <c r="D62">
+        <v>0.3316</v>
+      </c>
+      <c r="E62" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62">
+        <v>45.6263</v>
+      </c>
+      <c r="G62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>0.834</v>
+      </c>
+      <c r="C63">
+        <v>0.7863</v>
+      </c>
+      <c r="D63">
+        <v>0.3316</v>
+      </c>
+      <c r="E63" t="s">
+        <v>170</v>
+      </c>
+      <c r="F63">
+        <v>49.3809</v>
+      </c>
+      <c r="G63" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>0.834</v>
+      </c>
+      <c r="C64">
+        <v>0.7863</v>
+      </c>
+      <c r="D64">
+        <v>0.3316</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64">
+        <v>69.59869999999999</v>
+      </c>
+      <c r="G64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>0.834</v>
+      </c>
+      <c r="C65">
+        <v>0.7863</v>
+      </c>
+      <c r="D65">
+        <v>0.3316</v>
+      </c>
+      <c r="E65" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65">
+        <v>55.0043</v>
+      </c>
+      <c r="G65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>0.8341</v>
+      </c>
+      <c r="C66">
+        <v>0.7863</v>
+      </c>
+      <c r="D66">
+        <v>0.3317</v>
+      </c>
+      <c r="E66" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66">
+        <v>51.1332</v>
+      </c>
+      <c r="G66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>0.8341</v>
+      </c>
+      <c r="C67">
+        <v>0.7865</v>
+      </c>
+      <c r="D67">
+        <v>0.3315</v>
+      </c>
+      <c r="E67" t="s">
+        <v>174</v>
+      </c>
+      <c r="F67">
+        <v>49.3462</v>
+      </c>
+      <c r="G67" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>0.8341</v>
+      </c>
+      <c r="C68">
+        <v>0.7865</v>
+      </c>
+      <c r="D68">
+        <v>0.3315</v>
+      </c>
+      <c r="E68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68">
+        <v>49.3475</v>
+      </c>
+      <c r="G68" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>0.8341</v>
+      </c>
+      <c r="C69">
+        <v>0.7864</v>
+      </c>
+      <c r="D69">
+        <v>0.3313</v>
+      </c>
+      <c r="E69" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69">
+        <v>51.2992</v>
+      </c>
+      <c r="G69" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.7865</v>
+      </c>
+      <c r="D70">
+        <v>0.3314</v>
+      </c>
+      <c r="E70" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70">
+        <v>59.7013</v>
+      </c>
+      <c r="G70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.7865</v>
+      </c>
+      <c r="D71">
+        <v>0.3314</v>
+      </c>
+      <c r="E71" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71">
+        <v>52.5515</v>
+      </c>
+      <c r="G71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C72">
+        <v>0.7865</v>
+      </c>
+      <c r="D72">
+        <v>0.3314</v>
+      </c>
+      <c r="E72" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72">
+        <v>52.1878</v>
+      </c>
+      <c r="G72" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="B73">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C73">
+        <v>0.7865</v>
+      </c>
+      <c r="D73">
+        <v>0.3314</v>
+      </c>
+      <c r="E73" t="s">
+        <v>180</v>
+      </c>
+      <c r="F73">
+        <v>54.7487</v>
+      </c>
+      <c r="G73" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C74">
+        <v>0.7865</v>
+      </c>
+      <c r="D74">
+        <v>0.3314</v>
+      </c>
+      <c r="E74" t="s">
+        <v>181</v>
+      </c>
+      <c r="F74">
+        <v>55.5654</v>
+      </c>
+      <c r="G74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C75">
+        <v>0.7865</v>
+      </c>
+      <c r="D75">
+        <v>0.3314</v>
+      </c>
+      <c r="E75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75">
+        <v>57.2218</v>
+      </c>
+      <c r="G75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C76">
+        <v>0.7865</v>
+      </c>
+      <c r="D76">
+        <v>0.3314</v>
+      </c>
+      <c r="E76" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76">
+        <v>60.9081</v>
+      </c>
+      <c r="G76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C77">
+        <v>0.7865</v>
+      </c>
+      <c r="D77">
+        <v>0.3314</v>
+      </c>
+      <c r="E77" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77">
+        <v>53.7294</v>
+      </c>
+      <c r="G77" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>0.8341</v>
+      </c>
+      <c r="C78">
+        <v>0.7864</v>
+      </c>
+      <c r="D78">
+        <v>0.3315</v>
+      </c>
+      <c r="E78" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78">
+        <v>59.193</v>
+      </c>
+      <c r="G78" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C79">
+        <v>0.7864</v>
+      </c>
+      <c r="D79">
+        <v>0.3314</v>
+      </c>
+      <c r="E79" t="s">
+        <v>186</v>
+      </c>
+      <c r="F79">
+        <v>58.295</v>
+      </c>
+      <c r="G79" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C80">
+        <v>0.7864</v>
+      </c>
+      <c r="D80">
+        <v>0.3314</v>
+      </c>
+      <c r="E80" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80">
+        <v>54.1335</v>
+      </c>
+      <c r="G80" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C81">
+        <v>0.7867</v>
+      </c>
+      <c r="D81">
+        <v>0.3312</v>
+      </c>
+      <c r="E81" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81">
+        <v>58.1385</v>
+      </c>
+      <c r="G81" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>0.8341</v>
+      </c>
+      <c r="C82">
+        <v>0.7866</v>
+      </c>
+      <c r="D82">
+        <v>0.3313</v>
+      </c>
+      <c r="E82" t="s">
+        <v>189</v>
+      </c>
+      <c r="F82">
+        <v>63.7884</v>
+      </c>
+      <c r="G82" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>0.8341</v>
+      </c>
+      <c r="C83">
+        <v>0.7866</v>
+      </c>
+      <c r="D83">
+        <v>0.3313</v>
+      </c>
+      <c r="E83" t="s">
+        <v>190</v>
+      </c>
+      <c r="F83">
+        <v>60.5872</v>
+      </c>
+      <c r="G83" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>0.8341</v>
+      </c>
+      <c r="C84">
+        <v>0.7866</v>
+      </c>
+      <c r="D84">
+        <v>0.3313</v>
+      </c>
+      <c r="E84" t="s">
+        <v>191</v>
+      </c>
+      <c r="F84">
+        <v>60.1507</v>
+      </c>
+      <c r="G84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>0.834</v>
+      </c>
+      <c r="C85">
+        <v>0.7863</v>
+      </c>
+      <c r="D85">
+        <v>0.3314</v>
+      </c>
+      <c r="E85" t="s">
+        <v>192</v>
+      </c>
+      <c r="F85">
+        <v>63.2065</v>
+      </c>
+      <c r="G85" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>0.834</v>
+      </c>
+      <c r="C86">
+        <v>0.7863</v>
+      </c>
+      <c r="D86">
+        <v>0.3314</v>
+      </c>
+      <c r="E86" t="s">
+        <v>193</v>
+      </c>
+      <c r="F86">
+        <v>70.0155</v>
+      </c>
+      <c r="G86" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>0.834</v>
+      </c>
+      <c r="C87">
+        <v>0.7863</v>
+      </c>
+      <c r="D87">
+        <v>0.3314</v>
+      </c>
+      <c r="E87" t="s">
+        <v>194</v>
+      </c>
+      <c r="F87">
+        <v>65.5719</v>
+      </c>
+      <c r="G87" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>0.834</v>
+      </c>
+      <c r="C88">
+        <v>0.7863</v>
+      </c>
+      <c r="D88">
+        <v>0.3314</v>
+      </c>
+      <c r="E88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88">
+        <v>57.7112</v>
+      </c>
+      <c r="G88" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>0.834</v>
+      </c>
+      <c r="C89">
+        <v>0.7863</v>
+      </c>
+      <c r="D89">
+        <v>0.3314</v>
+      </c>
+      <c r="E89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F89">
+        <v>58.1558</v>
+      </c>
+      <c r="G89" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C90">
+        <v>0.787</v>
+      </c>
+      <c r="D90">
+        <v>0.3309</v>
+      </c>
+      <c r="E90" t="s">
+        <v>197</v>
+      </c>
+      <c r="F90">
+        <v>67.6118</v>
+      </c>
+      <c r="G90" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>0.8341</v>
+      </c>
+      <c r="C91">
+        <v>0.7867</v>
+      </c>
+      <c r="D91">
+        <v>0.3309</v>
+      </c>
+      <c r="E91" t="s">
+        <v>198</v>
+      </c>
+      <c r="F91">
+        <v>68.354</v>
+      </c>
+      <c r="G91" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>0.8341</v>
+      </c>
+      <c r="C92">
+        <v>0.7867</v>
+      </c>
+      <c r="D92">
+        <v>0.3306</v>
+      </c>
+      <c r="E92" t="s">
+        <v>199</v>
+      </c>
+      <c r="F92">
+        <v>73.68089999999999</v>
+      </c>
+      <c r="G92" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>0.8341</v>
+      </c>
+      <c r="C93">
+        <v>0.7866</v>
+      </c>
+      <c r="D93">
+        <v>0.3305</v>
+      </c>
+      <c r="E93" t="s">
+        <v>200</v>
+      </c>
+      <c r="F93">
+        <v>72.7899</v>
+      </c>
+      <c r="G93" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <v>0.834</v>
+      </c>
+      <c r="C94">
+        <v>0.7866</v>
+      </c>
+      <c r="D94">
+        <v>0.3305</v>
+      </c>
+      <c r="E94" t="s">
+        <v>201</v>
+      </c>
+      <c r="F94">
+        <v>71.4319</v>
+      </c>
+      <c r="G94" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95">
+        <v>0.834</v>
+      </c>
+      <c r="C95">
+        <v>0.7866</v>
+      </c>
+      <c r="D95">
+        <v>0.3305</v>
+      </c>
+      <c r="E95" t="s">
+        <v>202</v>
+      </c>
+      <c r="F95">
+        <v>71.9712</v>
+      </c>
+      <c r="G95" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <v>0.834</v>
+      </c>
+      <c r="C96">
+        <v>0.7866</v>
+      </c>
+      <c r="D96">
+        <v>0.3304</v>
+      </c>
+      <c r="E96" t="s">
+        <v>203</v>
+      </c>
+      <c r="F96">
+        <v>77.7535</v>
+      </c>
+      <c r="G96" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C97">
+        <v>0.7864</v>
+      </c>
+      <c r="D97">
+        <v>0.3302</v>
+      </c>
+      <c r="E97" t="s">
+        <v>204</v>
+      </c>
+      <c r="F97">
+        <v>84.5086</v>
+      </c>
+      <c r="G97" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>0.8341</v>
+      </c>
+      <c r="C98">
+        <v>0.7864</v>
+      </c>
+      <c r="D98">
+        <v>0.3302</v>
+      </c>
+      <c r="E98" t="s">
+        <v>205</v>
+      </c>
+      <c r="F98">
+        <v>79.8383</v>
+      </c>
+      <c r="G98" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99">
+        <v>0.8341</v>
+      </c>
+      <c r="C99">
+        <v>0.7863</v>
+      </c>
+      <c r="D99">
+        <v>0.3302</v>
+      </c>
+      <c r="E99" t="s">
+        <v>206</v>
+      </c>
+      <c r="F99">
+        <v>84.0133</v>
+      </c>
+      <c r="G99" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100">
+        <v>0.834</v>
+      </c>
+      <c r="C100">
+        <v>0.7862</v>
+      </c>
+      <c r="D100">
+        <v>0.3302</v>
+      </c>
+      <c r="E100" t="s">
+        <v>207</v>
+      </c>
+      <c r="F100">
+        <v>106.0307</v>
+      </c>
+      <c r="G100" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101">
+        <v>0.834</v>
+      </c>
+      <c r="C101">
+        <v>0.7861</v>
+      </c>
+      <c r="D101">
+        <v>0.3302</v>
+      </c>
+      <c r="E101" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101">
+        <v>88.00020000000001</v>
+      </c>
+      <c r="G101" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102">
+        <v>0.8341</v>
+      </c>
+      <c r="C102">
+        <v>0.7864</v>
+      </c>
+      <c r="D102">
+        <v>0.3302</v>
+      </c>
+      <c r="E102" t="s">
+        <v>209</v>
+      </c>
+      <c r="F102">
+        <v>91.3968</v>
+      </c>
+      <c r="G102" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103">
+        <v>0.8342000000000001</v>
+      </c>
+      <c r="C103">
+        <v>0.7864</v>
+      </c>
+      <c r="D103">
+        <v>0.3302</v>
+      </c>
+      <c r="E103" t="s">
+        <v>210</v>
+      </c>
+      <c r="F103">
+        <v>94.1553</v>
+      </c>
+      <c r="G103" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104">
+        <v>0.8345</v>
+      </c>
+      <c r="C104">
+        <v>0.786</v>
+      </c>
+      <c r="D104">
+        <v>0.3291</v>
+      </c>
+      <c r="E104" t="s">
+        <v>211</v>
+      </c>
+      <c r="F104">
+        <v>97.5416</v>
+      </c>
+      <c r="G104" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/preprocessing/preprocessing_all_features_not_cleaned.xlsx
+++ b/preprocessing/preprocessing_all_features_not_cleaned.xlsx
@@ -343,313 +343,313 @@
     <t>103</t>
   </si>
   <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328280&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe52026bf10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f3288e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f3282b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f3281c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f3286d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328460&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328a60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f3280a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328c40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328ca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328d00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328d60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328dc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328e20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328e80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328ee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328be0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328f40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328fd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328a30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328a90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f3284f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328f70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f3287c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328a00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328b80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f3284c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f3287f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f3283d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328fa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d8b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d9a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8da00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8da60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8db20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8db80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dbe0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dc40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dd60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8ddc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8df10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d0a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8df70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51f328af0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8de20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d6d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8da90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d1c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d3d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dbb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dd90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d0d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8df40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8ddf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dc70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d2e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dcd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8da30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8dfd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d3a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe51ee8d430&gt;</t>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a092850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8269e0c9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8269e0c100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8269d6a9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f838b8cf430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f838b8cf0d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826b574a30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826b5748e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826b574820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826b574850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826b574880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826b5747f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826b574ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826b5744c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826b574700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826b574b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a061a00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a061c70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a061340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a061c40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a061a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a061cd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b607f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60b50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60af0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b608b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60b80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b609d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b604c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b605e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60a00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b609a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60bb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60be0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60c70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60eb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60dc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b604f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60a90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60d00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60f10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60c40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60e80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b60d90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8123815df0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b5f820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b5fa30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b5f9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b5fa60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b5f910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b5fd30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b5f580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b5f2b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b5fbb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f8356b5feb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085bb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a0855b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085a00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a0859a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a0857c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a0856a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f826a085dc0&gt;</t>
   </si>
   <si>
     <t>['nb_words_question1']</t>

--- a/preprocessing/preprocessing_all_features_not_cleaned.xlsx
+++ b/preprocessing/preprocessing_all_features_not_cleaned.xlsx
@@ -343,313 +343,313 @@
     <t>103</t>
   </si>
   <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a092850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8269e0c9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8269e0c100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8269d6a9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f838b8cf430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f838b8cf0d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826b574a30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826b5748e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826b574820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826b574850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826b574880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826b5747f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826b574ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826b5744c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826b574700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826b574b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a061a00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a061c70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a061340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a061c40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a061a60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a061cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b607f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60f40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60e20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60a60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60af0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60460&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b608b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60b80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b609d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b604c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b605e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60a00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b609a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60bb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60be0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60c70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60dc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b604f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60d60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60a90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60ee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60d00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60c40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60fd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60e80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60790&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b60d90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8123815df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b5f820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b5fa30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b5f9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b5fa60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b5f910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b5fd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b5f580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b5f2b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b5fbb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f8356b5feb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085bb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085e20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085ee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a0855b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085a00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a0859a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085f40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085d60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085460&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a0857c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085a60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a0856a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f826a085dc0&gt;</t>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667ba00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bbe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b9a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bf40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b3a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bd30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b7f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bc70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bf10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b5b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b60d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b62e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b68e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b67f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b66a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bd60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b1f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667be20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bfa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bb20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b2e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667be50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667baf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bb50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bd00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bfd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667ba90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea08e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bbb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea03a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bdf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea04f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667ba60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0f10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea04c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea06a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea0490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667bcd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e97ea02e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e9667b940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24d60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24c70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd248e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24d00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd243a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24c40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b63a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24fa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e8ab0e2b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24bb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e8ab0e0d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd248b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e8ab0e490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e892b6640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7f4e7cd24970&gt;</t>
   </si>
   <si>
     <t>['nb_words_question1']</t>
@@ -1359,7 +1359,7 @@
         <v>109</v>
       </c>
       <c r="F2">
-        <v>14.5209</v>
+        <v>27.7012</v>
       </c>
       <c r="G2" t="s">
         <v>212</v>
@@ -1382,7 +1382,7 @@
         <v>110</v>
       </c>
       <c r="F3">
-        <v>12.4775</v>
+        <v>27.4828</v>
       </c>
       <c r="G3" t="s">
         <v>213</v>
@@ -1405,7 +1405,7 @@
         <v>111</v>
       </c>
       <c r="F4">
-        <v>18.2454</v>
+        <v>22.3121</v>
       </c>
       <c r="G4" t="s">
         <v>214</v>
@@ -1428,7 +1428,7 @@
         <v>112</v>
       </c>
       <c r="F5">
-        <v>13.5659</v>
+        <v>14.0994</v>
       </c>
       <c r="G5" t="s">
         <v>215</v>
@@ -1451,7 +1451,7 @@
         <v>113</v>
       </c>
       <c r="F6">
-        <v>13.5773</v>
+        <v>13.5409</v>
       </c>
       <c r="G6" t="s">
         <v>216</v>
@@ -1474,7 +1474,7 @@
         <v>114</v>
       </c>
       <c r="F7">
-        <v>13.4729</v>
+        <v>16.413</v>
       </c>
       <c r="G7" t="s">
         <v>217</v>
@@ -1497,7 +1497,7 @@
         <v>115</v>
       </c>
       <c r="F8">
-        <v>14.0135</v>
+        <v>15.9403</v>
       </c>
       <c r="G8" t="s">
         <v>218</v>
@@ -1520,7 +1520,7 @@
         <v>116</v>
       </c>
       <c r="F9">
-        <v>16.5446</v>
+        <v>27.5042</v>
       </c>
       <c r="G9" t="s">
         <v>219</v>
@@ -1543,7 +1543,7 @@
         <v>117</v>
       </c>
       <c r="F10">
-        <v>17.638</v>
+        <v>18.9001</v>
       </c>
       <c r="G10" t="s">
         <v>220</v>
@@ -1566,7 +1566,7 @@
         <v>118</v>
       </c>
       <c r="F11">
-        <v>18.4453</v>
+        <v>22.2668</v>
       </c>
       <c r="G11" t="s">
         <v>221</v>
@@ -1589,7 +1589,7 @@
         <v>119</v>
       </c>
       <c r="F12">
-        <v>18.15</v>
+        <v>22.0664</v>
       </c>
       <c r="G12" t="s">
         <v>222</v>
@@ -1612,7 +1612,7 @@
         <v>120</v>
       </c>
       <c r="F13">
-        <v>20.6329</v>
+        <v>19.7708</v>
       </c>
       <c r="G13" t="s">
         <v>223</v>
@@ -1635,7 +1635,7 @@
         <v>121</v>
       </c>
       <c r="F14">
-        <v>18.9652</v>
+        <v>26.5698</v>
       </c>
       <c r="G14" t="s">
         <v>224</v>
@@ -1658,7 +1658,7 @@
         <v>122</v>
       </c>
       <c r="F15">
-        <v>21.8539</v>
+        <v>28.3852</v>
       </c>
       <c r="G15" t="s">
         <v>225</v>
@@ -1681,7 +1681,7 @@
         <v>123</v>
       </c>
       <c r="F16">
-        <v>21.5582</v>
+        <v>23.5975</v>
       </c>
       <c r="G16" t="s">
         <v>226</v>
@@ -1704,7 +1704,7 @@
         <v>124</v>
       </c>
       <c r="F17">
-        <v>22.807</v>
+        <v>22.5508</v>
       </c>
       <c r="G17" t="s">
         <v>227</v>
@@ -1727,7 +1727,7 @@
         <v>125</v>
       </c>
       <c r="F18">
-        <v>22.4219</v>
+        <v>22.7026</v>
       </c>
       <c r="G18" t="s">
         <v>228</v>
@@ -1750,7 +1750,7 @@
         <v>126</v>
       </c>
       <c r="F19">
-        <v>22.5478</v>
+        <v>24.5047</v>
       </c>
       <c r="G19" t="s">
         <v>229</v>
@@ -1773,7 +1773,7 @@
         <v>127</v>
       </c>
       <c r="F20">
-        <v>24.6912</v>
+        <v>24.5608</v>
       </c>
       <c r="G20" t="s">
         <v>230</v>
@@ -1796,7 +1796,7 @@
         <v>128</v>
       </c>
       <c r="F21">
-        <v>26.2567</v>
+        <v>24.8985</v>
       </c>
       <c r="G21" t="s">
         <v>231</v>
@@ -1819,7 +1819,7 @@
         <v>129</v>
       </c>
       <c r="F22">
-        <v>26.0565</v>
+        <v>31.4821</v>
       </c>
       <c r="G22" t="s">
         <v>232</v>
@@ -1842,7 +1842,7 @@
         <v>130</v>
       </c>
       <c r="F23">
-        <v>24.7804</v>
+        <v>26.7239</v>
       </c>
       <c r="G23" t="s">
         <v>233</v>
@@ -1865,7 +1865,7 @@
         <v>131</v>
       </c>
       <c r="F24">
-        <v>26.2344</v>
+        <v>28.1379</v>
       </c>
       <c r="G24" t="s">
         <v>234</v>
@@ -1888,7 +1888,7 @@
         <v>132</v>
       </c>
       <c r="F25">
-        <v>27.6266</v>
+        <v>26.9481</v>
       </c>
       <c r="G25" t="s">
         <v>235</v>
@@ -1911,7 +1911,7 @@
         <v>133</v>
       </c>
       <c r="F26">
-        <v>25.8705</v>
+        <v>29.345</v>
       </c>
       <c r="G26" t="s">
         <v>236</v>
@@ -1934,7 +1934,7 @@
         <v>134</v>
       </c>
       <c r="F27">
-        <v>27.2657</v>
+        <v>29.6454</v>
       </c>
       <c r="G27" t="s">
         <v>237</v>
@@ -1957,7 +1957,7 @@
         <v>135</v>
       </c>
       <c r="F28">
-        <v>26.8363</v>
+        <v>41.351</v>
       </c>
       <c r="G28" t="s">
         <v>238</v>
@@ -1980,7 +1980,7 @@
         <v>136</v>
       </c>
       <c r="F29">
-        <v>27.0472</v>
+        <v>31.3247</v>
       </c>
       <c r="G29" t="s">
         <v>239</v>
@@ -2003,7 +2003,7 @@
         <v>137</v>
       </c>
       <c r="F30">
-        <v>29.9347</v>
+        <v>32.8299</v>
       </c>
       <c r="G30" t="s">
         <v>240</v>
@@ -2026,7 +2026,7 @@
         <v>138</v>
       </c>
       <c r="F31">
-        <v>28.2222</v>
+        <v>30.8577</v>
       </c>
       <c r="G31" t="s">
         <v>241</v>
@@ -2049,7 +2049,7 @@
         <v>139</v>
       </c>
       <c r="F32">
-        <v>37.386</v>
+        <v>33.3168</v>
       </c>
       <c r="G32" t="s">
         <v>242</v>
@@ -2072,7 +2072,7 @@
         <v>140</v>
       </c>
       <c r="F33">
-        <v>31.2495</v>
+        <v>33.8771</v>
       </c>
       <c r="G33" t="s">
         <v>243</v>
@@ -2095,7 +2095,7 @@
         <v>141</v>
       </c>
       <c r="F34">
-        <v>31.854</v>
+        <v>31.1514</v>
       </c>
       <c r="G34" t="s">
         <v>244</v>
@@ -2118,7 +2118,7 @@
         <v>142</v>
       </c>
       <c r="F35">
-        <v>31.4124</v>
+        <v>34.4449</v>
       </c>
       <c r="G35" t="s">
         <v>245</v>
@@ -2141,7 +2141,7 @@
         <v>143</v>
       </c>
       <c r="F36">
-        <v>32.5523</v>
+        <v>34.3938</v>
       </c>
       <c r="G36" t="s">
         <v>246</v>
@@ -2164,7 +2164,7 @@
         <v>144</v>
       </c>
       <c r="F37">
-        <v>32.7812</v>
+        <v>35.6054</v>
       </c>
       <c r="G37" t="s">
         <v>247</v>
@@ -2187,7 +2187,7 @@
         <v>145</v>
       </c>
       <c r="F38">
-        <v>33.4585</v>
+        <v>35.7485</v>
       </c>
       <c r="G38" t="s">
         <v>248</v>
@@ -2210,7 +2210,7 @@
         <v>146</v>
       </c>
       <c r="F39">
-        <v>33.7311</v>
+        <v>38.6793</v>
       </c>
       <c r="G39" t="s">
         <v>249</v>
@@ -2233,7 +2233,7 @@
         <v>147</v>
       </c>
       <c r="F40">
-        <v>36.5349</v>
+        <v>37.9495</v>
       </c>
       <c r="G40" t="s">
         <v>250</v>
@@ -2256,7 +2256,7 @@
         <v>148</v>
       </c>
       <c r="F41">
-        <v>37.0746</v>
+        <v>39.5205</v>
       </c>
       <c r="G41" t="s">
         <v>251</v>
@@ -2279,7 +2279,7 @@
         <v>149</v>
       </c>
       <c r="F42">
-        <v>39.7704</v>
+        <v>46.7772</v>
       </c>
       <c r="G42" t="s">
         <v>252</v>
@@ -2302,7 +2302,7 @@
         <v>150</v>
       </c>
       <c r="F43">
-        <v>35.4486</v>
+        <v>43.923</v>
       </c>
       <c r="G43" t="s">
         <v>253</v>
@@ -2325,7 +2325,7 @@
         <v>151</v>
       </c>
       <c r="F44">
-        <v>37.4756</v>
+        <v>39.4386</v>
       </c>
       <c r="G44" t="s">
         <v>254</v>
@@ -2348,7 +2348,7 @@
         <v>152</v>
       </c>
       <c r="F45">
-        <v>36.7637</v>
+        <v>38.4739</v>
       </c>
       <c r="G45" t="s">
         <v>255</v>
@@ -2371,7 +2371,7 @@
         <v>153</v>
       </c>
       <c r="F46">
-        <v>38.1103</v>
+        <v>39.9465</v>
       </c>
       <c r="G46" t="s">
         <v>256</v>
@@ -2394,7 +2394,7 @@
         <v>154</v>
       </c>
       <c r="F47">
-        <v>38.8298</v>
+        <v>41.8265</v>
       </c>
       <c r="G47" t="s">
         <v>257</v>
@@ -2417,7 +2417,7 @@
         <v>155</v>
       </c>
       <c r="F48">
-        <v>39.5511</v>
+        <v>40.7541</v>
       </c>
       <c r="G48" t="s">
         <v>258</v>
@@ -2440,7 +2440,7 @@
         <v>156</v>
       </c>
       <c r="F49">
-        <v>39.1273</v>
+        <v>42.5122</v>
       </c>
       <c r="G49" t="s">
         <v>259</v>
@@ -2463,7 +2463,7 @@
         <v>157</v>
       </c>
       <c r="F50">
-        <v>45.5856</v>
+        <v>42.025</v>
       </c>
       <c r="G50" t="s">
         <v>260</v>
@@ -2486,7 +2486,7 @@
         <v>158</v>
       </c>
       <c r="F51">
-        <v>40.1901</v>
+        <v>43.6482</v>
       </c>
       <c r="G51" t="s">
         <v>261</v>
@@ -2509,7 +2509,7 @@
         <v>159</v>
       </c>
       <c r="F52">
-        <v>40.2182</v>
+        <v>42.923</v>
       </c>
       <c r="G52" t="s">
         <v>262</v>
@@ -2532,7 +2532,7 @@
         <v>160</v>
       </c>
       <c r="F53">
-        <v>40.8894</v>
+        <v>50.225</v>
       </c>
       <c r="G53" t="s">
         <v>263</v>
@@ -2555,7 +2555,7 @@
         <v>161</v>
       </c>
       <c r="F54">
-        <v>42.6574</v>
+        <v>48.3038</v>
       </c>
       <c r="G54" t="s">
         <v>264</v>
@@ -2578,7 +2578,7 @@
         <v>162</v>
       </c>
       <c r="F55">
-        <v>42.4763</v>
+        <v>47.0101</v>
       </c>
       <c r="G55" t="s">
         <v>265</v>
@@ -2601,7 +2601,7 @@
         <v>163</v>
       </c>
       <c r="F56">
-        <v>42.2962</v>
+        <v>45.8568</v>
       </c>
       <c r="G56" t="s">
         <v>266</v>
@@ -2624,7 +2624,7 @@
         <v>164</v>
       </c>
       <c r="F57">
-        <v>47.141</v>
+        <v>45.3482</v>
       </c>
       <c r="G57" t="s">
         <v>267</v>
@@ -2647,7 +2647,7 @@
         <v>165</v>
       </c>
       <c r="F58">
-        <v>46.2808</v>
+        <v>45.1352</v>
       </c>
       <c r="G58" t="s">
         <v>268</v>
@@ -2670,7 +2670,7 @@
         <v>166</v>
       </c>
       <c r="F59">
-        <v>42.8914</v>
+        <v>49.4069</v>
       </c>
       <c r="G59" t="s">
         <v>269</v>
@@ -2693,7 +2693,7 @@
         <v>167</v>
       </c>
       <c r="F60">
-        <v>45.4499</v>
+        <v>47.151</v>
       </c>
       <c r="G60" t="s">
         <v>270</v>
@@ -2716,7 +2716,7 @@
         <v>168</v>
       </c>
       <c r="F61">
-        <v>46.401</v>
+        <v>48.4857</v>
       </c>
       <c r="G61" t="s">
         <v>271</v>
@@ -2739,7 +2739,7 @@
         <v>169</v>
       </c>
       <c r="F62">
-        <v>45.6263</v>
+        <v>47.1096</v>
       </c>
       <c r="G62" t="s">
         <v>272</v>
@@ -2762,7 +2762,7 @@
         <v>170</v>
       </c>
       <c r="F63">
-        <v>49.3809</v>
+        <v>49.9067</v>
       </c>
       <c r="G63" t="s">
         <v>273</v>
@@ -2785,7 +2785,7 @@
         <v>171</v>
       </c>
       <c r="F64">
-        <v>69.59869999999999</v>
+        <v>52.4989</v>
       </c>
       <c r="G64" t="s">
         <v>274</v>
@@ -2808,7 +2808,7 @@
         <v>172</v>
       </c>
       <c r="F65">
-        <v>55.0043</v>
+        <v>52.4654</v>
       </c>
       <c r="G65" t="s">
         <v>275</v>
@@ -2831,7 +2831,7 @@
         <v>173</v>
       </c>
       <c r="F66">
-        <v>51.1332</v>
+        <v>51.5161</v>
       </c>
       <c r="G66" t="s">
         <v>276</v>
@@ -2854,7 +2854,7 @@
         <v>174</v>
       </c>
       <c r="F67">
-        <v>49.3462</v>
+        <v>50.0258</v>
       </c>
       <c r="G67" t="s">
         <v>277</v>
@@ -2877,7 +2877,7 @@
         <v>175</v>
       </c>
       <c r="F68">
-        <v>49.3475</v>
+        <v>51.8963</v>
       </c>
       <c r="G68" t="s">
         <v>278</v>
@@ -2900,7 +2900,7 @@
         <v>176</v>
       </c>
       <c r="F69">
-        <v>51.2992</v>
+        <v>51.1271</v>
       </c>
       <c r="G69" t="s">
         <v>279</v>
@@ -2923,7 +2923,7 @@
         <v>177</v>
       </c>
       <c r="F70">
-        <v>59.7013</v>
+        <v>51.3695</v>
       </c>
       <c r="G70" t="s">
         <v>280</v>
@@ -2946,7 +2946,7 @@
         <v>178</v>
       </c>
       <c r="F71">
-        <v>52.5515</v>
+        <v>52.8902</v>
       </c>
       <c r="G71" t="s">
         <v>281</v>
@@ -2969,7 +2969,7 @@
         <v>179</v>
       </c>
       <c r="F72">
-        <v>52.1878</v>
+        <v>55.0553</v>
       </c>
       <c r="G72" t="s">
         <v>282</v>
@@ -2992,7 +2992,7 @@
         <v>180</v>
       </c>
       <c r="F73">
-        <v>54.7487</v>
+        <v>53.5387</v>
       </c>
       <c r="G73" t="s">
         <v>283</v>
@@ -3015,7 +3015,7 @@
         <v>181</v>
       </c>
       <c r="F74">
-        <v>55.5654</v>
+        <v>52.8115</v>
       </c>
       <c r="G74" t="s">
         <v>284</v>
@@ -3038,7 +3038,7 @@
         <v>182</v>
       </c>
       <c r="F75">
-        <v>57.2218</v>
+        <v>54.3531</v>
       </c>
       <c r="G75" t="s">
         <v>285</v>
@@ -3061,7 +3061,7 @@
         <v>183</v>
       </c>
       <c r="F76">
-        <v>60.9081</v>
+        <v>56.6637</v>
       </c>
       <c r="G76" t="s">
         <v>286</v>
@@ -3084,7 +3084,7 @@
         <v>184</v>
       </c>
       <c r="F77">
-        <v>53.7294</v>
+        <v>55.938</v>
       </c>
       <c r="G77" t="s">
         <v>287</v>
@@ -3107,7 +3107,7 @@
         <v>185</v>
       </c>
       <c r="F78">
-        <v>59.193</v>
+        <v>56.0013</v>
       </c>
       <c r="G78" t="s">
         <v>288</v>
@@ -3130,7 +3130,7 @@
         <v>186</v>
       </c>
       <c r="F79">
-        <v>58.295</v>
+        <v>56.8907</v>
       </c>
       <c r="G79" t="s">
         <v>289</v>
@@ -3153,7 +3153,7 @@
         <v>187</v>
       </c>
       <c r="F80">
-        <v>54.1335</v>
+        <v>57.147</v>
       </c>
       <c r="G80" t="s">
         <v>290</v>
@@ -3176,7 +3176,7 @@
         <v>188</v>
       </c>
       <c r="F81">
-        <v>58.1385</v>
+        <v>56.7414</v>
       </c>
       <c r="G81" t="s">
         <v>291</v>
@@ -3199,7 +3199,7 @@
         <v>189</v>
       </c>
       <c r="F82">
-        <v>63.7884</v>
+        <v>57.291</v>
       </c>
       <c r="G82" t="s">
         <v>292</v>
@@ -3222,7 +3222,7 @@
         <v>190</v>
       </c>
       <c r="F83">
-        <v>60.5872</v>
+        <v>56.3439</v>
       </c>
       <c r="G83" t="s">
         <v>293</v>
@@ -3245,7 +3245,7 @@
         <v>191</v>
       </c>
       <c r="F84">
-        <v>60.1507</v>
+        <v>58.2655</v>
       </c>
       <c r="G84" t="s">
         <v>294</v>
@@ -3268,7 +3268,7 @@
         <v>192</v>
       </c>
       <c r="F85">
-        <v>63.2065</v>
+        <v>57.8286</v>
       </c>
       <c r="G85" t="s">
         <v>295</v>
@@ -3291,7 +3291,7 @@
         <v>193</v>
       </c>
       <c r="F86">
-        <v>70.0155</v>
+        <v>65.4401</v>
       </c>
       <c r="G86" t="s">
         <v>296</v>
@@ -3314,7 +3314,7 @@
         <v>194</v>
       </c>
       <c r="F87">
-        <v>65.5719</v>
+        <v>67.1033</v>
       </c>
       <c r="G87" t="s">
         <v>297</v>
@@ -3337,7 +3337,7 @@
         <v>195</v>
       </c>
       <c r="F88">
-        <v>57.7112</v>
+        <v>61.3129</v>
       </c>
       <c r="G88" t="s">
         <v>298</v>
@@ -3360,7 +3360,7 @@
         <v>196</v>
       </c>
       <c r="F89">
-        <v>58.1558</v>
+        <v>63.0952</v>
       </c>
       <c r="G89" t="s">
         <v>299</v>
@@ -3383,7 +3383,7 @@
         <v>197</v>
       </c>
       <c r="F90">
-        <v>67.6118</v>
+        <v>71.0078</v>
       </c>
       <c r="G90" t="s">
         <v>300</v>
@@ -3406,7 +3406,7 @@
         <v>198</v>
       </c>
       <c r="F91">
-        <v>68.354</v>
+        <v>75.42310000000001</v>
       </c>
       <c r="G91" t="s">
         <v>301</v>
@@ -3429,7 +3429,7 @@
         <v>199</v>
       </c>
       <c r="F92">
-        <v>73.68089999999999</v>
+        <v>73.191</v>
       </c>
       <c r="G92" t="s">
         <v>302</v>
@@ -3452,7 +3452,7 @@
         <v>200</v>
       </c>
       <c r="F93">
-        <v>72.7899</v>
+        <v>79.3142</v>
       </c>
       <c r="G93" t="s">
         <v>303</v>
@@ -3475,7 +3475,7 @@
         <v>201</v>
       </c>
       <c r="F94">
-        <v>71.4319</v>
+        <v>78.6075</v>
       </c>
       <c r="G94" t="s">
         <v>304</v>
@@ -3498,7 +3498,7 @@
         <v>202</v>
       </c>
       <c r="F95">
-        <v>71.9712</v>
+        <v>79.58669999999999</v>
       </c>
       <c r="G95" t="s">
         <v>305</v>
@@ -3521,7 +3521,7 @@
         <v>203</v>
       </c>
       <c r="F96">
-        <v>77.7535</v>
+        <v>77.1823</v>
       </c>
       <c r="G96" t="s">
         <v>306</v>
@@ -3544,7 +3544,7 @@
         <v>204</v>
       </c>
       <c r="F97">
-        <v>84.5086</v>
+        <v>79.15300000000001</v>
       </c>
       <c r="G97" t="s">
         <v>307</v>
@@ -3567,7 +3567,7 @@
         <v>205</v>
       </c>
       <c r="F98">
-        <v>79.8383</v>
+        <v>93.52290000000001</v>
       </c>
       <c r="G98" t="s">
         <v>308</v>
@@ -3590,7 +3590,7 @@
         <v>206</v>
       </c>
       <c r="F99">
-        <v>84.0133</v>
+        <v>86.6865</v>
       </c>
       <c r="G99" t="s">
         <v>309</v>
@@ -3613,7 +3613,7 @@
         <v>207</v>
       </c>
       <c r="F100">
-        <v>106.0307</v>
+        <v>89.8383</v>
       </c>
       <c r="G100" t="s">
         <v>310</v>
@@ -3636,7 +3636,7 @@
         <v>208</v>
       </c>
       <c r="F101">
-        <v>88.00020000000001</v>
+        <v>90.62869999999999</v>
       </c>
       <c r="G101" t="s">
         <v>311</v>
@@ -3659,7 +3659,7 @@
         <v>209</v>
       </c>
       <c r="F102">
-        <v>91.3968</v>
+        <v>106.9957</v>
       </c>
       <c r="G102" t="s">
         <v>312</v>
@@ -3682,7 +3682,7 @@
         <v>210</v>
       </c>
       <c r="F103">
-        <v>94.1553</v>
+        <v>93.3305</v>
       </c>
       <c r="G103" t="s">
         <v>313</v>
@@ -3693,10 +3693,10 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>0.8345</v>
+        <v>0.8343</v>
       </c>
       <c r="C104">
-        <v>0.786</v>
+        <v>0.7857</v>
       </c>
       <c r="D104">
         <v>0.3291</v>
@@ -3705,7 +3705,7 @@
         <v>211</v>
       </c>
       <c r="F104">
-        <v>97.5416</v>
+        <v>92.7955</v>
       </c>
       <c r="G104" t="s">
         <v>314</v>
